--- a/src/main/resources/excel/HotNoticeResource.xlsx
+++ b/src/main/resources/excel/HotNoticeResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D919C27-45F7-4557-894B-11CABA869C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B26BE0F-60E1-4375-B9BF-D80B61D594CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,83 +20,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+  <si>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>跟上新概念，研究起来兄弟们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利与信念，都交托给新题材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新题材才是大a不灭的动力，干它并绝不动摇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把眼光，从你的杂毛里移开，开始干新概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪明的人，都开始研究和挖掘新概念的题材了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一眼就看透新题材的人，和看不透新题材的人是两种人生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青叔语录，新题材是否发酵，是否需要跟风新题材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富密码从天而降，老铁们不看看吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新概念可以永远值得相信，宁缺毋滥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合，入侵新概念，开始团战新概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与其在老题材上煎熬，还不如死在战新题材上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生而无畏 和新概念血战到底</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是爬虫爬取的同花顺和东方财富的新概念，新出来的概念尽在掌控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的风暴已经出现，新概念准确率80%，重点关注兄弟们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新概念送温暖了，送钱了，新概念一个月可能只有一次，机不可失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新概念经过一年的验证了，准确率80%，按照概率统计非常高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青叔语录，大a就喜欢炒概念，有新题材，坚决抛弃旧题材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：价投战法，自己熟悉重点收藏的票反复套利，注意分析曲线，量能和macd，在一个票上反复套都比你乱操作赚的多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：提前埋伏战法，预测推理，预测未来趋势踩节奏，板块的参考历史趋势，消息推演，技术曲线分析，寻找将要发力的板块和妖股</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：新概念战法，靠着爬虫爬爬新概念，其它的啥都不做，只做爬虫爬的新概念，就能稳定赚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：盘中突然出现的利好不要追，不追高，追高被套风险大，回忆一下，我没有一次追高成功的，一次都没有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：竞价挂1个点买入，-1个点卖出，竞价低开小于1就是弱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：必须做套，做套成功率远远大于失败率，赚0.1个点也是几百块钱，只要到位置，就可以1/10去的仓位做梯度套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：不管什么票，都得分批买卖，有信心的股票敢于重仓all in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：止损6%，超过这个值，亏了也要跑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：每个月5%收益，年化80%收益，每个月10收益，年化300%收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：卖出的股票，尾盘确认买入强度，强度大坚决再次买入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：每个月9号公布社融数据，每个月20号LRP利率公布，月初或者月中MLF公布，每天早上9点20公布逆回购，可以适当布局银行证券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：月初激进，月底保守</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：股票市场非常残酷，亏钱的是大多数，7亏2平1赚，能控制住回撤持续盈利才能立于不败之地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：二板定龙头，有新题材，坚决抛弃旧题材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：不要老盯着涨上去的票，打开想象力看看周边关联板块个股</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：股票买入和卖出的时候，相关龙头和板块，公告，董秘，新闻，股评，港股，期货，曲线，相关趋势，换手。没有明显利空，就可以坚定持有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：利好落地是利空，利空才是买点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：炒股靠的不是计算，而是凶狠，买也要凶狠，卖也要凶狠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：股市永远是逆人性的，卖在高潮，买在绝望； 一定要克服人性的贪婪和恐惧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：心如止水，上善若水。水善利万物而不争，处众人之所恶，故几于道。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：早上9点开始准备半个小时，晚上花半个小时复盘，必须制定计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混语录：股指期货交割日，合约月份的第三个周五，IC：中证500股指，IM：中证1000，IF：沪深300股指，IH：上证50股指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>关键词</t>
-  </si>
-  <si>
-    <t>跟上新概念，研究起来兄弟们</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜利与信念，都交托给新题材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新题材才是大a不灭的动力，干它并绝不动摇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把眼光，从你的杂毛里移开，开始干新概念</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聪明的人，都开始研究和挖掘新概念的题材了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一眼就看透新题材的人，和看不透新题材的人是两种人生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>青叔语录，新题材是否发酵，是否需要跟风新题材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>财富密码从天而降，老铁们不看看吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新概念可以永远值得相信，宁缺毋滥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集合，入侵新概念，开始团战新概念</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与其在老题材上煎熬，还不如死在战新题材上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生而无畏 和新概念血战到底</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个是爬虫爬取的同花顺和东方财富的新概念，新出来的概念尽在掌控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新的风暴已经出现，新概念准确率80%，重点关注兄弟们</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新概念送温暖了，送钱了，新概念一个月可能只有一次，机不可失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新概念经过一年的验证了，准确率80%，按照概率统计非常高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>青叔语录，大a就喜欢炒概念，有新题材，坚决抛弃旧题材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -441,34 +550,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="71.29296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.76171875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.17578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.76171875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="144.17578125" customWidth="1"/>
+    <col min="4" max="4" width="17.5859375" customWidth="1"/>
     <col min="5" max="5" width="14.64453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -486,10 +614,15 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -498,10 +631,15 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -510,10 +648,15 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -522,10 +665,15 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -534,10 +682,15 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1"/>
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -546,10 +699,15 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -558,10 +716,15 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -570,10 +733,15 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -582,10 +750,15 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -594,10 +767,15 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1"/>
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -606,10 +784,15 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -618,10 +801,15 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1"/>
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -630,10 +818,15 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -642,10 +835,15 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1"/>
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -654,10 +852,15 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1"/>
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -666,10 +869,15 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1"/>
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -678,10 +886,15 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -690,7 +903,9 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C22" s="1"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -699,7 +914,9 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C23" s="1"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -708,7 +925,9 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C24" s="1"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -717,8 +936,18 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="3">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -726,7 +955,15 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C26" s="1"/>
+      <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -735,7 +972,15 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C27" s="1"/>
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -744,7 +989,15 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C28" s="1"/>
+      <c r="A28" s="3">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -753,7 +1006,15 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C29" s="1"/>
+      <c r="A29" s="3">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -762,7 +1023,15 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C30" s="1"/>
+      <c r="A30" s="3">
+        <v>23</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -771,7 +1040,15 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C31" s="1"/>
+      <c r="A31" s="3">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -780,7 +1057,15 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C32" s="1"/>
+      <c r="A32" s="3">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -788,8 +1073,16 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C33" s="1"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -797,8 +1090,16 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C34" s="1"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" s="3">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -806,8 +1107,16 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C35" s="1"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -815,8 +1124,16 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C36" s="1"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" s="3">
+        <v>29</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -824,8 +1141,16 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C37" s="1"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" s="3">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -833,8 +1158,16 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C38" s="1"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="3">
+        <v>31</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -842,8 +1175,16 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C39" s="1"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" s="3">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -851,8 +1192,16 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C40" s="1"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" s="3">
+        <v>33</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -860,8 +1209,16 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C41" s="1"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" s="3">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -869,8 +1226,16 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C42" s="1"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" s="3">
+        <v>35</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -878,8 +1243,16 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C43" s="1"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" s="3">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -887,8 +1260,16 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C44" s="1"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" s="3">
+        <v>37</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -896,8 +1277,16 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C45" s="1"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" s="3">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -905,8 +1294,16 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C46" s="1"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" s="3">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -914,7 +1311,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="F47" s="1"/>
@@ -923,7 +1320,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="F48" s="1"/>
@@ -1076,7 +1473,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="F65" s="1"/>
@@ -1085,7 +1482,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="F66" s="1"/>
@@ -1094,7 +1491,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="F67" s="1"/>
@@ -1103,14 +1500,23 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" s="2"/>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" s="2"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/excel/HotNoticeResource.xlsx
+++ b/src/main/resources/excel/HotNoticeResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B26BE0F-60E1-4375-B9BF-D80B61D594CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30848643-35DA-4286-8116-6E3FA66384CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>关键词</t>
   </si>
@@ -206,6 +206,62 @@
   </si>
   <si>
     <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路遥在《平凡的世界》中写道：“在这个世界上，不是所有合理和美好的都能按照自己的愿望存在或实现。”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们总是期盼涨停，追逐快乐，殊不知，不如意也常十有八九。当岁月把你我拽入泥潭，与其熬在其中自暴自弃，不如沉着应对。于平凡中憧憬，等岁月的欣喜。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝉鸣一夏，却蛰伏了好几个四季；昙花一现，却等待了整个白昼。所有的收获都是默默耕耘、默默等待的成果。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待，原本就是生命中一个重要篇章。把一颗种子埋到土里，要等它生根、等它发芽、等它开花再等它结果。就连泡面，都需要等上三分钟。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果承认了这个事实，你会淡定很多，不会因为等待而焦灼不堪，反而有一种云淡风清的悠闲。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待是我们和时间之间的一场博弈。我们凭着智慧和耐力，与未来做一个交换。真正厉害的人，比如青叔深谙这个道理，只有当自己具备了足够的实力，才能将大放异彩的机会牢牢抓住。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大A的事，只要生机不灭，即使重遭天灾人祸，暂被阻抑，终有抬头的日子。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老韭菜都明白：在庄家面前，莫论公道，因为痛苦和磨难，注定会是成长的一部分。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真正的高手，在身处低谷时，依旧能够保持淡然，充满生生不息的希望，因为他们明白谷底才是新世界的开始。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木心在《素履之往》中写道：所谓万丈深渊，下去，也是前程万里。大A也是这样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《基督山伯爵》的结尾掷地有声：人类的全部智慧就包含在这五个字里面：等待和希望！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真正的勇士，是在看清了庄家的真相之后，依然过得热气腾腾。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒股是为了明天，为了预期，因为记忆中有朝阳晓露。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管大A现在怎样，明天一定是充满希望的一天，这是每个人内心最朴素的念想。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -552,15 +608,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.17578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.76171875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="144.17578125" customWidth="1"/>
+    <col min="1" max="1" width="18.234375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.52734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="161.3515625" customWidth="1"/>
     <col min="4" max="4" width="17.5859375" customWidth="1"/>
     <col min="5" max="5" width="14.64453125" style="1" customWidth="1"/>
   </cols>
@@ -1329,8 +1385,16 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C49" s="1"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>500</v>
+      </c>
+      <c r="B49" s="1">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1338,8 +1402,16 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C50" s="1"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>501</v>
+      </c>
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1347,8 +1419,16 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C51" s="1"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>502</v>
+      </c>
+      <c r="B51" s="1">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1356,8 +1436,16 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C52" s="1"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>503</v>
+      </c>
+      <c r="B52" s="1">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1365,8 +1453,16 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C53" s="1"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>504</v>
+      </c>
+      <c r="B53" s="1">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1374,8 +1470,16 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C54" s="1"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>505</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1383,8 +1487,16 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C55" s="1"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>506</v>
+      </c>
+      <c r="B55" s="1">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1392,8 +1504,16 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C56" s="1"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>507</v>
+      </c>
+      <c r="B56" s="1">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1401,8 +1521,16 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C57" s="1"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>508</v>
+      </c>
+      <c r="B57" s="1">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1410,8 +1538,16 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C58" s="1"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>509</v>
+      </c>
+      <c r="B58" s="1">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1419,8 +1555,16 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C59" s="1"/>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>510</v>
+      </c>
+      <c r="B59" s="1">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1428,8 +1572,16 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C60" s="1"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>511</v>
+      </c>
+      <c r="B60" s="1">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1437,8 +1589,16 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C61" s="1"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>512</v>
+      </c>
+      <c r="B61" s="1">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -1446,8 +1606,16 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C62" s="1"/>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>513</v>
+      </c>
+      <c r="B62" s="1">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -1455,7 +1623,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="F63" s="1"/>
@@ -1464,7 +1632,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="F64" s="1"/>

--- a/src/main/resources/excel/HotNoticeResource.xlsx
+++ b/src/main/resources/excel/HotNoticeResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30848643-35DA-4286-8116-6E3FA66384CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3134B5-99BE-4100-BCDF-93E406B2C6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>关键词</t>
   </si>
@@ -262,6 +262,14 @@
   </si>
   <si>
     <t>不管大A现在怎样，明天一定是充满希望的一天，这是每个人内心最朴素的念想。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有题材就立马去研究，偷懒在股市是赚不到钱的，拼的就是体力，兄弟们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个新概念的爬虫和普通的爬虫实现难度完全不是一个等级的，同花顺和东财动用了各种防爬工具，我是用了最高级别的puppeteer武器才解决防爬问题的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -959,9 +967,15 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -970,9 +984,15 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -992,18 +1012,10 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="3">
-        <v>18</v>
-      </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1012,15 +1024,17 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
+        <v>100</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="3">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1029,13 +1043,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
@@ -1046,13 +1060,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
@@ -1063,13 +1077,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
@@ -1080,13 +1094,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
@@ -1097,13 +1111,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
@@ -1114,13 +1128,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="B32" s="3">
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1"/>
       <c r="F32" s="1"/>
@@ -1131,13 +1145,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B33" s="3">
         <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1"/>
       <c r="F33" s="1"/>
@@ -1148,13 +1162,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="B34" s="3">
         <v>2</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1"/>
       <c r="F34" s="1"/>
@@ -1165,13 +1179,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="B35" s="3">
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1"/>
       <c r="F35" s="1"/>
@@ -1182,13 +1196,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="B36" s="3">
         <v>2</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="1"/>
       <c r="F36" s="1"/>
@@ -1199,13 +1213,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B37" s="3">
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1"/>
       <c r="F37" s="1"/>
@@ -1216,13 +1230,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="B38" s="3">
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1"/>
       <c r="F38" s="1"/>
@@ -1233,13 +1247,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="B39" s="3">
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
@@ -1250,13 +1264,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="B40" s="3">
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1"/>
       <c r="F40" s="1"/>
@@ -1267,13 +1281,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="B41" s="3">
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
@@ -1284,13 +1298,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="1"/>
       <c r="F42" s="1"/>
@@ -1301,13 +1315,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B43" s="3">
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" s="1"/>
       <c r="F43" s="1"/>
@@ -1318,13 +1332,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="1"/>
       <c r="F44" s="1"/>
@@ -1335,13 +1349,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="B45" s="3">
         <v>2</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="1"/>
       <c r="F45" s="1"/>
@@ -1352,13 +1366,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="1"/>
       <c r="F46" s="1"/>
@@ -1368,7 +1382,15 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C47" s="1"/>
+      <c r="A47" s="3">
+        <v>121</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1386,15 +1408,7 @@
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="1">
-        <v>500</v>
-      </c>
-      <c r="B49" s="1">
-        <v>9</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1404,13 +1418,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B50" s="1">
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="1"/>
       <c r="F50" s="1"/>
@@ -1421,13 +1435,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B51" s="1">
         <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="1"/>
       <c r="F51" s="1"/>
@@ -1438,13 +1452,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B52" s="1">
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="1"/>
       <c r="F52" s="1"/>
@@ -1455,13 +1469,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B53" s="1">
         <v>9</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="1"/>
       <c r="F53" s="1"/>
@@ -1472,13 +1486,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B54" s="1">
         <v>9</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" s="1"/>
       <c r="F54" s="1"/>
@@ -1489,13 +1503,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B55" s="1">
         <v>9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="1"/>
       <c r="F55" s="1"/>
@@ -1506,13 +1520,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B56" s="1">
         <v>9</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="1"/>
       <c r="F56" s="1"/>
@@ -1523,13 +1537,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B57" s="1">
         <v>9</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1"/>
       <c r="F57" s="1"/>
@@ -1540,13 +1554,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B58" s="1">
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="1"/>
       <c r="F58" s="1"/>
@@ -1557,13 +1571,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B59" s="1">
         <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="1"/>
       <c r="F59" s="1"/>
@@ -1574,13 +1588,13 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B60" s="1">
         <v>9</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" s="1"/>
       <c r="F60" s="1"/>
@@ -1591,13 +1605,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B61" s="1">
         <v>9</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="1"/>
       <c r="F61" s="1"/>
@@ -1608,13 +1622,13 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="1"/>
       <c r="F62" s="1"/>
@@ -1624,7 +1638,15 @@
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C63" s="1"/>
+      <c r="A63" s="1">
+        <v>513</v>
+      </c>
+      <c r="B63" s="1">
+        <v>9</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -1677,14 +1699,23 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" s="2"/>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" s="2"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
